--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{App,[x1..xn]}}.BottomUpEagerSubst.Test-2.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{App,[x1..xn]}}.BottomUpEagerSubst.Test-2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Abs{x,Tree{App,(x1..xn)}}.Botto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -85,10 +85,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,13 +127,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +478,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -502,8 +530,8 @@
         <v>116.83227777777699</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>2.5677835415536501E-2</v>
+        <f>C$9/D2</f>
+        <v>560.93231465239478</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -536,8 +564,8 @@
         <v>104.959666666666</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>0.14291203922776777</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>624.38269938611734</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -571,7 +599,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.60489242756293748</v>
+        <v>629.23214667201762</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -605,7 +633,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>2.4377911806132606</v>
+        <v>626.51233341760792</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -639,7 +667,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>9.2545498772694295</v>
+        <v>592.86112043680555</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -673,7 +701,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>30.073396468018128</v>
+        <v>481.28450244971134</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -707,7 +735,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>66.93234361935005</v>
+        <v>267.74163090362606</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -762,11 +790,12 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>15.638794778208156</v>
+        <v>540.42096398832587</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
